--- a/PCA_Hesaplama.xlsx
+++ b/PCA_Hesaplama.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gökhan Aydın\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E9FD4-73AB-C94E-B99A-D2DD90490DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E1D2F-3D2D-44D9-B5BA-71157ABC6122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Özet" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
   <si>
     <t>mean</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>5. Standart veri ile eigenvector'leri çarpma</t>
+  </si>
+  <si>
+    <t>Değişken  A</t>
   </si>
 </sst>
 </file>
@@ -829,8 +832,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Değişken</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Feature B</a:t>
+                  <a:t> B</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -863,8 +870,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Değişken</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Feature C</a:t>
+                  <a:t> C</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1020,8 +1031,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Değişken</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Feature A</a:t>
+                  <a:t> A</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1054,9 +1069,14 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Feature B</a:t>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Değişken</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="tr-TR" baseline="0"/>
+                  <a:t> B</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2624,21 +2644,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="141" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="141" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>35</v>
@@ -2670,16 +2690,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="R3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>38</v>
       </c>
@@ -2687,12 +2707,12 @@
       <c r="L5" s="48"/>
       <c r="R5" s="48"/>
     </row>
-    <row r="6" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48"/>
       <c r="G6" s="48"/>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="G7" s="48"/>
       <c r="W7" s="5" t="s">
@@ -2707,7 +2727,7 @@
       <c r="AG7" s="50"/>
       <c r="AH7" s="50"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="R8" s="40" t="s">
         <v>16</v>
       </c>
@@ -2746,7 +2766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>42</v>
       </c>
@@ -2904,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>43</v>
       </c>
@@ -2975,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
@@ -3022,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="L13" s="8">
         <f>(((I10-I14) * (I10-I14)) + ((I11-I14) * (I11-I14)) + ((I12-I14) * (I12-I14)))/3</f>
         <v>0.66666666666666663</v>
@@ -3045,7 +3065,7 @@
         <v>-0.70699999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>0</v>
@@ -3087,7 +3107,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -3120,14 +3140,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R16" s="53" t="s">
         <v>49</v>
       </c>
       <c r="S16" s="53"/>
       <c r="T16" s="53"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="L17" s="3"/>
       <c r="M17" s="4" t="s">
@@ -3143,7 +3163,7 @@
       <c r="S17" s="53"/>
       <c r="T17" s="53"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="L18" s="4" t="s">
         <v>42</v>
@@ -3161,7 +3181,7 @@
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="L19" s="4" t="s">
         <v>43</v>
@@ -3179,7 +3199,7 @@
       <c r="S19" s="53"/>
       <c r="T19" s="53"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="L20" s="4" t="s">
         <v>44</v>
@@ -3197,13 +3217,13 @@
       <c r="S20" s="53"/>
       <c r="T20" s="53"/>
     </row>
-    <row r="21" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="53"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="L22" s="10"/>
       <c r="M22" s="11" t="s">
         <v>50</v>
@@ -3220,7 +3240,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="L23" s="11" t="s">
         <v>42</v>
       </c>
@@ -3241,7 +3261,7 @@
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="L24" s="11" t="s">
         <v>43</v>
       </c>
@@ -3262,7 +3282,7 @@
       <c r="U24" s="34"/>
       <c r="V24" s="34"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="L25" s="11" t="s">
         <v>44</v>
       </c>
@@ -3283,13 +3303,13 @@
       <c r="U25" s="34"/>
       <c r="V25" s="34"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="S28" s="34"/>
       <c r="T28" s="14"/>
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="U29" s="34"/>
       <c r="V29" s="34"/>
     </row>
@@ -3310,17 +3330,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:D77"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -3334,7 +3356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C2" s="3">
         <v>3</v>
       </c>
@@ -3352,7 +3374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C3" s="3">
         <v>1</v>
       </c>
@@ -3376,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -3394,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
@@ -3406,7 +3428,7 @@
       </c>
       <c r="N7" s="54"/>
     </row>
-    <row r="8" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -3430,7 +3452,7 @@
       </c>
       <c r="N8" s="54"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -3459,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C10" s="3">
         <v>2</v>
       </c>
@@ -3476,7 +3498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="G13" s="46" t="s">
@@ -3486,7 +3508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="C14" s="3">
         <v>3</v>
@@ -3503,7 +3525,7 @@
       </c>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C15" s="3">
         <v>1</v>
       </c>
@@ -3526,7 +3548,7 @@
       </c>
       <c r="K15" s="47"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C16" s="3">
         <v>2</v>
       </c>
@@ -3539,23 +3561,23 @@
       <c r="G16" s="47"/>
       <c r="K16" s="47"/>
     </row>
-    <row r="18" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41"/>
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>15</v>
@@ -3564,9 +3586,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C20" s="12">
         <v>0.66666666666666696</v>
@@ -3588,10 +3610,10 @@
       </c>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C21" s="12">
         <v>0.27954262312584494</v>
@@ -3623,10 +3645,10 @@
       <c r="L21" s="14"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C22" s="12">
         <v>0.27954262312584494</v>
@@ -3645,24 +3667,24 @@
       </c>
       <c r="M22" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C26" s="12">
         <v>0.66666666666666696</v>
@@ -3681,9 +3703,9 @@
         <v>0.63781455760108174</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C27" s="12">
         <v>0.27954262312584494</v>
@@ -3708,9 +3730,9 @@
         <v>0.97074123504618792</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C28" s="12">
         <v>0.27954262312584494</v>
@@ -3729,13 +3751,13 @@
         <v>0.97074123504618792</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="G30" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E31" s="15" t="s">
         <v>16</v>
       </c>
@@ -3747,7 +3769,7 @@
         <v>0.63839999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E32" s="18">
         <v>1.52</v>
       </c>
@@ -3765,7 +3787,7 @@
         <v>0.9728</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G33" s="18">
         <v>0.64</v>
       </c>
@@ -3774,19 +3796,19 @@
         <v>0.9728</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>15</v>
@@ -3795,9 +3817,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B37" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C37" s="12">
         <v>0.66666666666666696</v>
@@ -3818,9 +3840,9 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B38" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C38" s="12">
         <v>0.27954262312584494</v>
@@ -3850,9 +3872,9 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B39" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C39" s="12">
         <v>0.27954262312584494</v>
@@ -3870,27 +3892,27 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C43" s="12">
         <v>0.66666666666666696</v>
@@ -3909,9 +3931,9 @@
         <v>0.43894109279115989</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C44" s="12">
         <v>0.27954262312584494</v>
@@ -3936,9 +3958,9 @@
         <v>-0.14561621295548099</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C45" s="12">
         <v>0.27954262312584494</v>
@@ -3957,16 +3979,16 @@
         <v>-0.14561621295548099</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G47" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E48" s="15" t="s">
         <v>16</v>
       </c>
@@ -3978,7 +4000,7 @@
         <v>0.43680000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E49" s="18">
         <v>0.48</v>
       </c>
@@ -3996,7 +4018,7 @@
         <v>-0.14399999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G50" s="18">
         <v>-0.3</v>
       </c>
@@ -4005,19 +4027,19 @@
         <v>-0.14399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>15</v>
@@ -4026,9 +4048,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B53" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C53" s="12">
         <v>0.66666666666666696</v>
@@ -4049,9 +4071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B54" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C54" s="12">
         <v>0.27954262312584494</v>
@@ -4081,9 +4103,9 @@
         <v>-0.70699999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C55" s="12">
         <v>0.27954262312584494</v>
@@ -4101,27 +4123,27 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="19"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C59" s="12">
         <v>0.66666666666666696</v>
@@ -4140,9 +4162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B60" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C60" s="12">
         <v>0.27954262312584494</v>
@@ -4167,9 +4189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B61" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C61" s="12">
         <v>0.27954262312584494</v>
@@ -4188,16 +4210,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G63" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E64" s="15" t="s">
         <v>16</v>
       </c>
@@ -4209,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E65" s="18">
         <v>0</v>
       </c>
@@ -4227,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G66" s="18">
         <v>0.70699999999999996</v>
       </c>
@@ -4236,12 +4258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -4255,7 +4277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B72" s="18">
         <v>1.52</v>
       </c>
@@ -4266,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -4280,7 +4302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B75" s="18">
         <v>0.42</v>
       </c>
@@ -4291,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B76" s="18">
         <v>0.64</v>
       </c>
@@ -4302,7 +4324,7 @@
         <v>-0.70699999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B77" s="18">
         <v>0.64</v>
       </c>
@@ -4313,10 +4335,10 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
     </row>
   </sheetData>
@@ -4337,18 +4359,18 @@
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="5"/>
+    <col min="1" max="1" width="8.6328125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8.6328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -4360,7 +4382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -4374,7 +4396,7 @@
         <v>0.27954262312584494</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4388,7 +4410,7 @@
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -4402,13 +4424,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4422,7 +4444,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
@@ -4466,7 +4488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="23">
@@ -4494,7 +4516,7 @@
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -4508,32 +4530,32 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>27</v>
       </c>
